--- a/me_docs/5.JSP-Standard-Tag-Library-Core-Tags.xlsx
+++ b/me_docs/5.JSP-Standard-Tag-Library-Core-Tags.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF543F-B748-4CFC-9D09-AC1A152E7D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4077D33E-A620-466F-908D-A5293C1CA689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create project" sheetId="1" r:id="rId1"/>
     <sheet name="download jar" sheetId="2" r:id="rId2"/>
     <sheet name="test jsp" sheetId="3" r:id="rId3"/>
+    <sheet name="foreach-simple" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Create Dynamic Web Project</t>
   </si>
@@ -60,6 +61,12 @@
   </si>
   <si>
     <t>Access URL to test: http://localhost:8080/tagdemo/test.jsp</t>
+  </si>
+  <si>
+    <t>Create foreach-simple-test.jsp</t>
+  </si>
+  <si>
+    <t>Access URL to test: http://localhost:8080/tagdemo/foreach-simple-test.jsp</t>
   </si>
 </sst>
 </file>
@@ -778,6 +785,187 @@
         <a:xfrm>
           <a:off x="609600" y="37909500"/>
           <a:ext cx="5676190" cy="1733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246781</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>151786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4617C44-30BE-4AD6-A906-91701B3F96B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="6952381" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589943</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E159926B-A40D-439D-B474-1E81223574D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="4857143" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351467</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>151857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4DDACC-D04E-4892-B82C-9A2D85667702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11430000"/>
+          <a:ext cx="7666667" cy="4342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47009</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CF7E37-F90B-49E5-AD0B-33AE2D52F182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16192500"/>
+          <a:ext cx="4923809" cy="1685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD69911-A945-4124-BA39-F240E1F75F60}">
   <dimension ref="A2:A199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="M210" sqref="M210"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,4 +1339,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA8A14A-8856-49AD-A710-A33247DA707E}">
+  <dimension ref="A2:A85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me_docs/5.JSP-Standard-Tag-Library-Core-Tags.xlsx
+++ b/me_docs/5.JSP-Standard-Tag-Library-Core-Tags.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4077D33E-A620-466F-908D-A5293C1CA689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60227B2-2BD1-4ADD-94E4-412F671F5B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create project" sheetId="1" r:id="rId1"/>
     <sheet name="download jar" sheetId="2" r:id="rId2"/>
     <sheet name="test jsp" sheetId="3" r:id="rId3"/>
     <sheet name="foreach-simple" sheetId="4" r:id="rId4"/>
+    <sheet name="foreach-student" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Create Dynamic Web Project</t>
   </si>
@@ -67,6 +68,24 @@
   </si>
   <si>
     <t>Access URL to test: http://localhost:8080/tagdemo/foreach-simple-test.jsp</t>
+  </si>
+  <si>
+    <t>Create tagdemo package</t>
+  </si>
+  <si>
+    <t>Create Student Class</t>
+  </si>
+  <si>
+    <t>Create Constructor using Fields</t>
+  </si>
+  <si>
+    <t>Generate Getters and Setters</t>
+  </si>
+  <si>
+    <t>Create foreach-student-test.jsp</t>
+  </si>
+  <si>
+    <t>Access URL to test: http://localhost:8080/tagdemo/foreach-student-test.jsp</t>
   </si>
 </sst>
 </file>
@@ -966,6 +985,715 @@
         <a:xfrm>
           <a:off x="609600" y="16192500"/>
           <a:ext cx="4923809" cy="1685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180190</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>189881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B201CA7-BE63-45C9-853D-EF81A3DE3302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="952500"/>
+          <a:ext cx="6276190" cy="4952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503543</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>28000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F7E135-B761-4665-9067-A201F3249D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26479500"/>
+          <a:ext cx="10257143" cy="4600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466133</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>84929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D08D331-1F15-4FD1-BB7C-8DBDBEDB5514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="31242000"/>
+          <a:ext cx="4733333" cy="6371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179886</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>37524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64064CC2-23A7-4798-9E56-57B53D6D886E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="37719000"/>
+          <a:ext cx="8714286" cy="4609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>446400</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>37524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646996B1-ECD3-4665-9277-86BE05D72350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="42862500"/>
+          <a:ext cx="10200000" cy="4609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570895</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>65857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6811DE0-82F3-44D8-A4CD-46717DDE6064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="47625000"/>
+          <a:ext cx="4838095" cy="6542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>551848</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>75381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05977CE6-DB77-493B-8A50-D1073B5824CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="54292500"/>
+          <a:ext cx="4819048" cy="6552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141790</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>170857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A058D039-07C0-476D-9F1B-BC54E1C02F3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="61341000"/>
+          <a:ext cx="8676190" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8914</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>180262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCB47BC-E072-4D70-82C2-581106E00796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="66294000"/>
+          <a:ext cx="4885714" cy="5704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18438</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>75690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE640840-2D07-46DA-800A-E43DFE2A2368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="4895238" cy="4076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189562</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0868CF8-14BF-4409-9998-A3A3AC477252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9906000"/>
+          <a:ext cx="7504762" cy="4942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132724</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>104024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864A3F10-82D5-4BD5-BA8F-A65B8364ADBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15049500"/>
+          <a:ext cx="5009524" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199314</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>66071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9379D42D-AAA8-4DBA-884D-7A2F2465984D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21336000"/>
+          <a:ext cx="5685714" cy="4828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198933</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>94524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F564CD65-5972-41F4-9C98-8D5DA58330E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="60960000"/>
+          <a:ext cx="8733333" cy="5809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>237105</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>104024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E050E62-4FA5-40A7-A3B0-5811AA8927A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="78105000"/>
+          <a:ext cx="8161905" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18438</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>94952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528C46D9-A1D7-491C-B85A-BBEB2F46E2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="84582000"/>
+          <a:ext cx="4895238" cy="2380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1345,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA8A14A-8856-49AD-A710-A33247DA707E}">
   <dimension ref="A2:A85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
@@ -1365,4 +2093,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A92F222-D56F-4605-8ECA-E0D0CDC2877F}">
+  <dimension ref="A2:A444"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="N453" sqref="N453"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me_docs/5.JSP-Standard-Tag-Library-Core-Tags.xlsx
+++ b/me_docs/5.JSP-Standard-Tag-Library-Core-Tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60227B2-2BD1-4ADD-94E4-412F671F5B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1165CE8-5F16-492F-AA51-EEC8FE50F1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create project" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="test jsp" sheetId="3" r:id="rId3"/>
     <sheet name="foreach-simple" sheetId="4" r:id="rId4"/>
     <sheet name="foreach-student" sheetId="5" r:id="rId5"/>
+    <sheet name="Conditionals" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Create Dynamic Web Project</t>
   </si>
@@ -87,6 +88,12 @@
   <si>
     <t>Access URL to test: http://localhost:8080/tagdemo/foreach-student-test.jsp</t>
   </si>
+  <si>
+    <t>Create if-student-test.jsp</t>
+  </si>
+  <si>
+    <t>Access URL to test: http://localhost:8080/tagdemo/if-student-test.jsp</t>
+  </si>
 </sst>
 </file>
 
@@ -1694,6 +1701,187 @@
         <a:xfrm>
           <a:off x="609600" y="84582000"/>
           <a:ext cx="4895238" cy="2380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141790</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD1CBF-1B30-430F-AAB0-1C1BA5E50AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8676190" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608990</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>189786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9860CA-F637-45E6-BAF7-AA57C135B8B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5334000"/>
+          <a:ext cx="4876190" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>284800</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>37357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B3683F-7067-4A25-B84D-AC2CE4A632C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11239500"/>
+          <a:ext cx="7600000" cy="5942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37486</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F84EF2-B4DF-4425-B9CD-60CFA11F2178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17716500"/>
+          <a:ext cx="4914286" cy="1923810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2099,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A92F222-D56F-4605-8ECA-E0D0CDC2877F}">
   <dimension ref="A2:A444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="N453" sqref="N453"/>
+    <sheetView topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,4 +2327,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B524C3-D3F0-4C35-8308-C8DB7DA1A31D}">
+  <dimension ref="A2:A93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="P102" sqref="P102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me_docs/5.JSP-Standard-Tag-Library-Core-Tags.xlsx
+++ b/me_docs/5.JSP-Standard-Tag-Library-Core-Tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1165CE8-5F16-492F-AA51-EEC8FE50F1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0389B16-6C8F-4E13-89B5-24601EE41AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create project" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="foreach-simple" sheetId="4" r:id="rId4"/>
     <sheet name="foreach-student" sheetId="5" r:id="rId5"/>
     <sheet name="Conditionals" sheetId="6" r:id="rId6"/>
+    <sheet name="choose Tag" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Create Dynamic Web Project</t>
   </si>
@@ -94,6 +95,12 @@
   <si>
     <t>Access URL to test: http://localhost:8080/tagdemo/if-student-test.jsp</t>
   </si>
+  <si>
+    <t>Create choose-student-test.jsp</t>
+  </si>
+  <si>
+    <t>Access URL to test: http://localhost:8080/tagdemo/choose-student-test.jsp</t>
+  </si>
 </sst>
 </file>
 
@@ -1882,6 +1889,187 @@
         <a:xfrm>
           <a:off x="609600" y="17716500"/>
           <a:ext cx="4914286" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141790</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5A5F54-F6A6-472B-8F53-A35BC721C334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8676190" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589943</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD93693-5477-416A-8AC8-65C6A8481FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5334000"/>
+          <a:ext cx="4857143" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341943</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>18309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49D6BE9-9380-467D-BC7F-3D263A82B77B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11239500"/>
+          <a:ext cx="7657143" cy="5923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47009</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>18762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF0E3EE-3A19-47DB-88D8-F2DF6B8740B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17526000"/>
+          <a:ext cx="4923809" cy="2304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2333,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B524C3-D3F0-4C35-8308-C8DB7DA1A31D}">
   <dimension ref="A2:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="P102" sqref="P102"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,4 +2541,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E142DCB3-34E7-4829-B9A7-9292D538B577}">
+  <dimension ref="A2:A92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me_docs/5.JSP-Standard-Tag-Library-Core-Tags.xlsx
+++ b/me_docs/5.JSP-Standard-Tag-Library-Core-Tags.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0389B16-6C8F-4E13-89B5-24601EE41AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBA34DA-DBAA-4001-B4B4-83AADE149ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Create project" sheetId="1" r:id="rId1"/>
-    <sheet name="download jar" sheetId="2" r:id="rId2"/>
-    <sheet name="test jsp" sheetId="3" r:id="rId3"/>
-    <sheet name="foreach-simple" sheetId="4" r:id="rId4"/>
-    <sheet name="foreach-student" sheetId="5" r:id="rId5"/>
-    <sheet name="Conditionals" sheetId="6" r:id="rId6"/>
-    <sheet name="choose Tag" sheetId="7" r:id="rId7"/>
+    <sheet name="tag" sheetId="8" r:id="rId1"/>
+    <sheet name="Create project" sheetId="1" r:id="rId2"/>
+    <sheet name="download jar" sheetId="2" r:id="rId3"/>
+    <sheet name="test jsp" sheetId="3" r:id="rId4"/>
+    <sheet name="foreach-simple" sheetId="4" r:id="rId5"/>
+    <sheet name="foreach-student" sheetId="5" r:id="rId6"/>
+    <sheet name="Conditionals" sheetId="6" r:id="rId7"/>
+    <sheet name="choose Tag" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -160,82 +161,44 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>351695</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32A96A4-F38B-41A3-914B-24327D051BA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="381000"/>
-          <a:ext cx="5838095" cy="4942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>456457</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>161071</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25E43E2-793F-4B1C-80C2-1255F6A7FE60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="5524500"/>
-          <a:ext cx="5942857" cy="6828571"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8EECF48-0392-4B5C-9C8F-F104D39627BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="6524625" cy="3562350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -253,21 +216,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>113067</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123167</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>351695</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75674B10-40AC-4845-B8BD-4AA01DECFE14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32A96A4-F38B-41A3-914B-24327D051BA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -283,35 +246,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="571500"/>
-          <a:ext cx="9866667" cy="5266667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>132114</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>8857</xdr:rowOff>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="5838095" cy="4942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>456457</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E9EC5C-E444-476E-A97F-6F8FC0C2F681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25E43E2-793F-4B1C-80C2-1255F6A7FE60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -327,96 +290,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="6477000"/>
-          <a:ext cx="9885714" cy="5342857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>37028</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>56976</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF7CBCD-5868-4AC7-8F69-0C8979B42E90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="12382500"/>
-          <a:ext cx="8571428" cy="1390476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>132952</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>151857</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72EF599-E385-444B-8E85-485C7329E5EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="13906500"/>
-          <a:ext cx="3180952" cy="4342857"/>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="5942857" cy="6828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -434,21 +309,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>246781</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>151786</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113067</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49E5524-FA69-4BEF-B201-82D991104FBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75674B10-40AC-4845-B8BD-4AA01DECFE14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -464,35 +339,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="381000"/>
-          <a:ext cx="6952381" cy="4914286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>551848</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>142167</xdr:rowOff>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="9866667" cy="5266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>132114</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>8857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0540AAC5-9E23-45CF-A987-281FCD36096F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E9EC5C-E444-476E-A97F-6F8FC0C2F681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -508,35 +383,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="5524500"/>
-          <a:ext cx="4819048" cy="5666667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>360990</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>37571</xdr:rowOff>
+          <a:off x="609600" y="6477000"/>
+          <a:ext cx="9885714" cy="5342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>37028</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>56976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78E4ABA-79B1-446A-9130-3D024AFBF54F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF7CBCD-5868-4AC7-8F69-0C8979B42E90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -552,35 +427,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="11430000"/>
-          <a:ext cx="7676190" cy="4228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>303848</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>132833</xdr:rowOff>
+          <a:off x="609600" y="12382500"/>
+          <a:ext cx="8571428" cy="1390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132952</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>151857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2BD4BC-A70B-49D0-9E69-D60FAEC00712}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72EF599-E385-444B-8E85-485C7329E5EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,228 +471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="16383000"/>
-          <a:ext cx="7619048" cy="4133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>351848</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>180524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41CA743-B559-4DD7-8BFD-7A9A727C42B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="20764500"/>
-          <a:ext cx="4619048" cy="3609524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>265676</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>170809</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EBCA4E-C3D1-4FA4-BCF4-55766FE21BA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="24574500"/>
-          <a:ext cx="8190476" cy="5123809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>570362</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>180167</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A528607A-8BC9-46CE-9DF7-3D686D3B8579}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="29908500"/>
-          <a:ext cx="9104762" cy="6466667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>217828</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>47524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3764E8F-8392-49DE-86CC-5AE86F68DD38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="36576000"/>
-          <a:ext cx="9971428" cy="809524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>189790</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>18833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D188CC-8F23-44CA-9C44-89DEDBA62365}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="37909500"/>
-          <a:ext cx="5676190" cy="1733333"/>
+          <a:off x="609600" y="13906500"/>
+          <a:ext cx="3180952" cy="4342857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,7 +504,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4617C44-30BE-4AD6-A906-91701B3F96B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49E5524-FA69-4BEF-B201-82D991104FBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,16 +539,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>589943</xdr:colOff>
+      <xdr:colOff>551848</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>161214</xdr:rowOff>
+      <xdr:rowOff>142167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E159926B-A40D-439D-B474-1E81223574D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0540AAC5-9E23-45CF-A987-281FCD36096F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -910,7 +565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="5524500"/>
-          <a:ext cx="4857143" cy="5685714"/>
+          <a:ext cx="4819048" cy="5666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -928,16 +583,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>351467</xdr:colOff>
+      <xdr:colOff>360990</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>151857</xdr:rowOff>
+      <xdr:rowOff>37571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4DDACC-D04E-4892-B82C-9A2D85667702}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78E4ABA-79B1-446A-9130-3D024AFBF54F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -954,34 +609,34 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="11430000"/>
-          <a:ext cx="7666667" cy="4342857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47009</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>161714</xdr:rowOff>
+          <a:ext cx="7676190" cy="4228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>303848</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>132833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CF7E37-F90B-49E5-AD0B-33AE2D52F182}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2BD4BC-A70B-49D0-9E69-D60FAEC00712}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -997,8 +652,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="16192500"/>
-          <a:ext cx="4923809" cy="1685714"/>
+          <a:off x="609600" y="16383000"/>
+          <a:ext cx="7619048" cy="4133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>351848</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>180524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41CA743-B559-4DD7-8BFD-7A9A727C42B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20764500"/>
+          <a:ext cx="4619048" cy="3609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265676</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>170809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EBCA4E-C3D1-4FA4-BCF4-55766FE21BA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24574500"/>
+          <a:ext cx="8190476" cy="5123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>570362</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>180167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A528607A-8BC9-46CE-9DF7-3D686D3B8579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29908500"/>
+          <a:ext cx="9104762" cy="6466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>217828</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>47524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3764E8F-8392-49DE-86CC-5AE86F68DD38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36576000"/>
+          <a:ext cx="9971428" cy="809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189790</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>18833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D188CC-8F23-44CA-9C44-89DEDBA62365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="37909500"/>
+          <a:ext cx="5676190" cy="1733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,17 +895,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180190</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246781</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>189881</xdr:rowOff>
+      <xdr:rowOff>151786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B201CA7-BE63-45C9-853D-EF81A3DE3302}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4617C44-30BE-4AD6-A906-91701B3F96B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,35 +921,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="952500"/>
-          <a:ext cx="6276190" cy="4952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>503543</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>28000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F7E135-B761-4665-9067-A201F3249D10}"/>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="6952381" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589943</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E159926B-A40D-439D-B474-1E81223574D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,35 +965,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="26479500"/>
-          <a:ext cx="10257143" cy="4600000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466133</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>84929</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D08D331-1F15-4FD1-BB7C-8DBDBEDB5514}"/>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="4857143" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351467</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>151857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4DDACC-D04E-4892-B82C-9A2D85667702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,35 +1009,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="31242000"/>
-          <a:ext cx="4733333" cy="6371429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>179886</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>37524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64064CC2-23A7-4798-9E56-57B53D6D886E}"/>
+          <a:off x="609600" y="11430000"/>
+          <a:ext cx="7666667" cy="4342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47009</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CF7E37-F90B-49E5-AD0B-33AE2D52F182}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,536 +1053,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="37719000"/>
-          <a:ext cx="8714286" cy="4609524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>446400</xdr:colOff>
-      <xdr:row>249</xdr:row>
-      <xdr:rowOff>37524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646996B1-ECD3-4665-9277-86BE05D72350}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="42862500"/>
-          <a:ext cx="10200000" cy="4609524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>570895</xdr:colOff>
-      <xdr:row>284</xdr:row>
-      <xdr:rowOff>65857</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6811DE0-82F3-44D8-A4CD-46717DDE6064}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="47625000"/>
-          <a:ext cx="4838095" cy="6542857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>551848</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>75381</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05977CE6-DB77-493B-8A50-D1073B5824CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="54292500"/>
-          <a:ext cx="4819048" cy="6552381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>353</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>141790</xdr:colOff>
-      <xdr:row>377</xdr:row>
-      <xdr:rowOff>170857</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A058D039-07C0-476D-9F1B-BC54E1C02F3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="61341000"/>
-          <a:ext cx="8676190" cy="4742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>379</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8914</xdr:colOff>
-      <xdr:row>408</xdr:row>
-      <xdr:rowOff>180262</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCB47BC-E072-4D70-82C2-581106E00796}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="66294000"/>
-          <a:ext cx="4885714" cy="5704762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>18438</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>75690</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE640840-2D07-46DA-800A-E43DFE2A2368}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="5524500"/>
-          <a:ext cx="4895238" cy="4076190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>189562</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>180357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0868CF8-14BF-4409-9998-A3A3AC477252}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="9906000"/>
-          <a:ext cx="7504762" cy="4942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>132724</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>104024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864A3F10-82D5-4BD5-BA8F-A65B8364ADBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="15049500"/>
-          <a:ext cx="5009524" cy="6009524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>199314</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>66071</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9379D42D-AAA8-4DBA-884D-7A2F2465984D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="21336000"/>
-          <a:ext cx="5685714" cy="4828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>320</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>198933</xdr:colOff>
-      <xdr:row>350</xdr:row>
-      <xdr:rowOff>94524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F564CD65-5972-41F4-9C98-8D5DA58330E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="60960000"/>
-          <a:ext cx="8733333" cy="5809524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>410</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>237105</xdr:colOff>
-      <xdr:row>441</xdr:row>
-      <xdr:rowOff>104024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E050E62-4FA5-40A7-A3B0-5811AA8927A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="78105000"/>
-          <a:ext cx="8161905" cy="6009524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>444</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>18438</xdr:colOff>
-      <xdr:row>456</xdr:row>
-      <xdr:rowOff>94952</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528C46D9-A1D7-491C-B85A-BBEB2F46E2F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="84582000"/>
-          <a:ext cx="4895238" cy="2380952"/>
+          <a:off x="609600" y="16192500"/>
+          <a:ext cx="4923809" cy="1685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1729,6 +1076,715 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180190</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>189881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B201CA7-BE63-45C9-853D-EF81A3DE3302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="952500"/>
+          <a:ext cx="6276190" cy="4952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503543</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>28000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F7E135-B761-4665-9067-A201F3249D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26479500"/>
+          <a:ext cx="10257143" cy="4600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466133</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>84929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D08D331-1F15-4FD1-BB7C-8DBDBEDB5514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="31242000"/>
+          <a:ext cx="4733333" cy="6371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179886</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>37524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64064CC2-23A7-4798-9E56-57B53D6D886E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="37719000"/>
+          <a:ext cx="8714286" cy="4609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>446400</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>37524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646996B1-ECD3-4665-9277-86BE05D72350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="42862500"/>
+          <a:ext cx="10200000" cy="4609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570895</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>65857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6811DE0-82F3-44D8-A4CD-46717DDE6064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="47625000"/>
+          <a:ext cx="4838095" cy="6542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>551848</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>75381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05977CE6-DB77-493B-8A50-D1073B5824CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="54292500"/>
+          <a:ext cx="4819048" cy="6552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141790</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>170857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A058D039-07C0-476D-9F1B-BC54E1C02F3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="61341000"/>
+          <a:ext cx="8676190" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8914</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>180262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCB47BC-E072-4D70-82C2-581106E00796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="66294000"/>
+          <a:ext cx="4885714" cy="5704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18438</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>75690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE640840-2D07-46DA-800A-E43DFE2A2368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="4895238" cy="4076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189562</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0868CF8-14BF-4409-9998-A3A3AC477252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9906000"/>
+          <a:ext cx="7504762" cy="4942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132724</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>104024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864A3F10-82D5-4BD5-BA8F-A65B8364ADBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15049500"/>
+          <a:ext cx="5009524" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199314</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>66071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9379D42D-AAA8-4DBA-884D-7A2F2465984D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21336000"/>
+          <a:ext cx="5685714" cy="4828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198933</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>94524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F564CD65-5972-41F4-9C98-8D5DA58330E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="60960000"/>
+          <a:ext cx="8733333" cy="5809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>237105</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>104024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E050E62-4FA5-40A7-A3B0-5811AA8927A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="78105000"/>
+          <a:ext cx="8161905" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18438</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>94952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528C46D9-A1D7-491C-B85A-BBEB2F46E2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="84582000"/>
+          <a:ext cx="4895238" cy="2380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>141790</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -1900,7 +1956,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2343,6 +2399,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5557683-B0A9-4944-801C-1F1C01B64510}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
@@ -2363,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9B4420-6321-4FD1-97DD-59E0FFAC803B}">
   <dimension ref="A2:B65"/>
   <sheetViews>
@@ -2404,7 +2475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD69911-A945-4124-BA39-F240E1F75F60}">
   <dimension ref="A2:A199"/>
   <sheetViews>
@@ -2445,7 +2516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA8A14A-8856-49AD-A710-A33247DA707E}">
   <dimension ref="A2:A85"/>
   <sheetViews>
@@ -2471,7 +2542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A92F222-D56F-4605-8ECA-E0D0CDC2877F}">
   <dimension ref="A2:A444"/>
   <sheetViews>
@@ -2517,7 +2588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B524C3-D3F0-4C35-8308-C8DB7DA1A31D}">
   <dimension ref="A2:A93"/>
   <sheetViews>
@@ -2543,12 +2614,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E142DCB3-34E7-4829-B9A7-9292D538B577}">
   <dimension ref="A2:A92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
